--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumAutomation\QaLegends\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5CF372-3B30-4E75-803A-241499E88B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929C02FD-E903-4A14-AA13-482E43BC285C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
+    <sheet name="UserPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>admin</t>
   </si>
@@ -56,6 +57,27 @@
   </si>
   <si>
     <t>We have e-mailed your password reset link!</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>User added successfully</t>
+  </si>
+  <si>
+    <t>Role:</t>
+  </si>
+  <si>
+    <t>Message:</t>
+  </si>
+  <si>
+    <t>Sale Commission %:</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>jack - (234)</t>
   </si>
 </sst>
 </file>
@@ -85,7 +107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,8 +120,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -148,22 +176,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -447,9 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -488,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DCE4FB-98B7-43C5-8653-828FA38E9569}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -499,10 +538,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -513,10 +552,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -537,4 +576,52 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC22BF47-E08C-4DAF-ACDD-D432DAB5B212}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumAutomation\QaLegends\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929C02FD-E903-4A14-AA13-482E43BC285C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96379C-AF83-4A6A-8D19-14D2A93534D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>admin</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>jack - (234)</t>
+  </si>
+  <si>
+    <t>blessyraju</t>
+  </si>
+  <si>
+    <t>View user:</t>
+  </si>
+  <si>
+    <t>No Record Message:</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
   </si>
 </sst>
 </file>
@@ -192,19 +204,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -538,10 +553,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -552,10 +567,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -580,14 +595,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC22BF47-E08C-4DAF-ACDD-D432DAB5B212}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.90625" customWidth="1"/>
@@ -603,7 +619,7 @@
       <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -619,6 +635,26 @@
       </c>
       <c r="D2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumAutomation\QaLegends\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96379C-AF83-4A6A-8D19-14D2A93534D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F651C118-A03D-4A8E-B60A-E2B56CF1800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
     <sheet name="UserPage" sheetId="3" r:id="rId3"/>
+    <sheet name="ImportContacts" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>admin</t>
   </si>
@@ -53,9 +54,6 @@
     <t>Valid User:</t>
   </si>
   <si>
-    <t>blessy@gmail.com</t>
-  </si>
-  <si>
     <t>We have e-mailed your password reset link!</t>
   </si>
   <si>
@@ -90,6 +88,12 @@
   </si>
   <si>
     <t>No matching records found</t>
+  </si>
+  <si>
+    <t>File imported successfully</t>
+  </si>
+  <si>
+    <t>blessy@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -211,14 +215,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -542,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DCE4FB-98B7-43C5-8653-828FA38E9569}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,10 +557,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -567,17 +571,17 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC22BF47-E08C-4DAF-ACDD-D432DAB5B212}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -611,49 +615,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55FAABA-1AFD-4AB5-9EE4-F4E64F17E26B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
